--- a/biology/Médecine/Syndrome_tetra-amélie/Syndrome_tetra-amélie.xlsx
+++ b/biology/Médecine/Syndrome_tetra-amélie/Syndrome_tetra-amélie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_tetra-am%C3%A9lie</t>
+          <t>Syndrome_tetra-amélie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome tetra-amélie est une maladie congénitale autosomique récessive extrêmement rare caractérisée par l'absence des quatre membres du corps humain. D'autres zones du corps humain sont aussi affectées par les malformations, telles que le visage, le crâne, les organes reproductifs, l'anus et le bassin. Ce trouble est causé par des mutations dans le gène WNT3. Le prédicateur et motivateur australien Nick Vujicic et l'auteur journaliste sportif japonais Hirotada Ototake sont porteurs du syndrome.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_tetra-am%C3%A9lie</t>
+          <t>Syndrome_tetra-amélie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_tetra-am%C3%A9lie</t>
+          <t>Syndrome_tetra-amélie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -534,14 +548,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cause et génétiques</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gène WNT3</t>
-        </is>
-      </c>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,7 +561,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_tetra-am%C3%A9lie</t>
+          <t>Syndrome_tetra-amélie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,38 +576,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Épidémiologie</t>
+          <t>Personnalités atteintes du syndrome</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_tetra-am%C3%A9lie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_tetra-am%C3%A9lie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Personnalités atteintes du syndrome</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nick Vujicic, fondateur de Life Without Limbs[1]
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nick Vujicic, fondateur de Life Without Limbs
 Joanne O'Riordan (en)
 Hirotada Ototake
 Prince Randian
